--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -63,7 +63,7 @@
       <name val="Calibri"/>
       <sz val="0.8"/>
       <b val="true"/>
-      <color indexed="11"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +130,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>33837.71801957176</v>
+        <v>33837.3534303125</v>
       </c>
       <c r="D2" t="n">
         <v>1200000.0</v>
@@ -144,7 +144,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>24061.71801957176</v>
+        <v>24061.3534303125</v>
       </c>
       <c r="D3" t="n">
         <v>1500000.0</v>
@@ -158,7 +158,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>31915.71801957176</v>
+        <v>31915.3534303125</v>
       </c>
       <c r="D4" t="n">
         <v>1800000.0</v>

--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -61,7 +61,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="0.8"/>
+      <sz val="14.0"/>
       <b val="true"/>
       <color indexed="10"/>
     </font>
@@ -104,7 +104,7 @@
   <cols>
     <col min="1" max="1" width="13.65625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.90234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.4375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.1484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.15625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -130,7 +130,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>33837.3534303125</v>
+        <v>33837.42171271991</v>
       </c>
       <c r="D2" t="n">
         <v>1200000.0</v>
@@ -144,7 +144,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>24061.3534303125</v>
+        <v>24061.421712719908</v>
       </c>
       <c r="D3" t="n">
         <v>1500000.0</v>
@@ -158,7 +158,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>31915.3534303125</v>
+        <v>31915.421712719908</v>
       </c>
       <c r="D4" t="n">
         <v>1800000.0</v>
